--- a/proj7/plot.xlsx
+++ b/proj7/plot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\rhel9\home\vlee\repos\cs475\proj7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAEA9BAC-82D9-41C3-85E9-8D77F7D8BE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{30F7D221-729E-4079-8B96-A498EDB7357B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{66AFD5E6-E323-4747-8B73-6032F867D132}"/>
   </bookViews>
@@ -558,6 +558,3286 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>plot!$A$1:$A$399</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="399"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>plot!$B$1:$B$399</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="399"/>
+                <c:pt idx="0">
+                  <c:v>5203202.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5180587</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5254451</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5041336.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5068700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4775886</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4631405.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4440382</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4314144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4254156.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4003684</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3722006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3503164.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3444995.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2892245</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2737418.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2469026</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2180680.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1849966.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1506462.75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1283154.75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>572608.43999999994</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>740272.56</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>139539.62</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-37356.559999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-631113.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-811618.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1025968.38</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1293420.3799999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1748946.25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1805477.75</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-2262905.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-2172666.75</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-2663387.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-3031099</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-2957616.25</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-3198536.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-3469832.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-3587258.75</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-3747757</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-3934569.75</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-3971803.25</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-4037627.25</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-4034861</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-4359238</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-4231653</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-4248124</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-4154834.75</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-4010430</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-4152041</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-4130481.25</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-3859556.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-3859395.25</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-3689075.75</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-3559080.5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-3520163.75</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-3213722.75</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-2993925</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-2847064.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-2559341.25</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-2372629.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-2021418.12</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-1956747.88</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-1516182.12</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-1475062.25</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-1057768.8799999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-894037.88</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-589774.56000000006</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-466935.69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-175140.23</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>109706.59</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>373428.78</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>690646.38</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>998428.75</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1094395.75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1573047</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1724273.5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1925968.75</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1927249.75</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2228143</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2326931</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2535181</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2764493.25</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2682576</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2955579.75</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3020957.25</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3121636.75</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3038135.5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3094655</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3233125.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3188334.75</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3108901</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2933991.25</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2960194.75</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2773740</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2865291</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2701090.75</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2491878.5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2282899</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2426346.5</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2198752.75</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1858148.5</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1638002.5</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1230810</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1098889.6200000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>905828.81</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>605550.56000000006</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>471865.41</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>95176.95</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-262504.31</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-322360.25</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-450422.72</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-793315.19</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-1201279.6200000001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-1398776.12</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-1760004.38</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-1918716.88</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-2134745.25</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-2415994.75</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-2465392.5</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-2816712.5</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-3074347.75</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-3470042.5</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-3433911</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-3615206.5</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-3740217.5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-3957379</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-3983678.75</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-4009629.75</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-4200445</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-4246720.5</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-4074233.5</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-4157544.75</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-4335502.5</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-4315364</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-4172571</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-3916382.75</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-4024920.5</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-3717979.5</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-3644930.75</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-3598171.5</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-3379012.25</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-3201006.75</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-3218348.5</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-2809680.5</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-2501624.5</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-2303316.25</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-2250768</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-1702500</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-1631660.88</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-1109732.8799999999</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-1092459.25</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-694849.44</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-244640.27</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-61314.61</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>138671.94</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>606315.62</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>878227.31</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1094499.6200000001</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1715620.38</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1868691.88</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2184409</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2356754.75</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2767147.25</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>3129922</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>3211249</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>3535574.25</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>3796287</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>3818761</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>4393561.5</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>4401238</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>4543759</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>4581355</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>4893894</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>5043027</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>4981887.5</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>5182134.5</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>5201146.5</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>5221001.5</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>5140118</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>5209170</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>5316669</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>5118288</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>4920486</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>4919436.5</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>4818165</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>4861684</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>4689018.5</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>4323278</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>4198514</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>3960887.25</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>3715713</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>3576697</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>3363070.5</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2989945.25</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2707889.5</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2610089</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2024680.62</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1815425.88</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1452092.75</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1157175.5</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1087238.6200000001</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>570344.81000000006</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>166068.97</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>7453.7</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>-324292</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>-522831.31</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>-787856.94</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>-1524426.38</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>-1472278.88</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>-1908066.88</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>-2218320</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>-2188345</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>-2776610.75</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>-2878556.5</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>-3093958</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>-3354604.25</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>-3339770.75</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>-3600977.5</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>-3832537.5</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>-3868456</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>-3864089</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>-4002888.75</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>-4055627.75</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>-4272923</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>-4194175.5</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>-4139288</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>-4067634</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>-4060126.25</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>-4059603.5</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>-4156183.25</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>-3966802.25</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>-3898356.25</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>-3715344.5</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>-3467281.25</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>-3545725.25</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>-3105455</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>-3046212.75</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>-2827435</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>-2693752.25</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>-2477321.75</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>-2242224.25</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>-1830911.38</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>-1743016.12</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>-1350061.75</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>-1006546.62</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>-927298.81</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>-576086.25</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>-325442.75</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>-148245.39000000001</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>230220.33</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>518067.41</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>556918.5</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1064976.25</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>1326266.1200000001</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>1409153.25</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>1644060.12</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>1794360</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>2026966.88</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>2246739.5</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>2618800.75</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>2566678.5</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>2724362.25</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>2816613.5</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>2952558.25</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>2873518.75</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>3148592.5</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>3200482.25</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>3107102.5</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>3268799.5</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>3089548.5</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>3088030.5</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>3040768.5</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>2920960.25</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2900040</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2745322</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2637550.75</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>2728902.5</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2397309.5</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2156995.25</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2108779.5</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>1929437</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>1608257.5</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>1405892</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>1021698.38</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>1084287.25</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>764714</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>446033.41</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>198005.06</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>-195491.12</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>-259665.34</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>-497488.34</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>-865552.44</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>-1143096.6200000001</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>-1273754.5</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>-1540348.75</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>-1888473.5</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>-2157600.5</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>-2443919.25</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>-2587698.25</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>-2722486.75</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>-3191032</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>-3269678.5</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>-3495982.5</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>-3555866</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>-3579798.75</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>-3888318.25</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>-3841288</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>-4178710.5</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>-4198714</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>-4218844.5</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>-4261801</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>-4210544.5</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>-4179534.5</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>-4198087</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>-4082225</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>-3962623.75</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>-4074009.25</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>-3971806.75</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>-3713424.5</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>-3588301.5</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>-3340146.75</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>-3336741.25</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>-3117186.25</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>-2917868.25</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>-2596867.5</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>-2392223.5</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>-2189044</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>-2063738.25</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>-1542623.12</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>-1155559.75</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>-883421.12</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>-617304.5</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>-470316.75</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>25061.05</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>208446.27</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>654274.38</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>843246.44</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>1200331.8799999999</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>1656798.38</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>1771020.62</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>2141950.25</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>2486927.75</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>2665563</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>2909974.25</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>3078908</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>3552411.5</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>3781041.5</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>3964714.75</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>4176190.25</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>4442318.5</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>4507497.5</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>4766355</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>4849081.5</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>4831880.5</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>4841737</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>5058417.5</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>5021126</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>5366828</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>5313251.5</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>5135655.5</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>5218752</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>4983583</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>5165449.5</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>5132171.5</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>5056967</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>4735639</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>4558855.5</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>4363140.5</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>4117173</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>3917607.5</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>3754556.5</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>3449487.75</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>3207745</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>3045057.75</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>2661193</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>2475006.25</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>2195940.25</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>1877343.75</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>1573360.5</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>1338594.3799999999</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>858471.25</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>666247.18999999994</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>275634.40999999997</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>42614.12</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>-390838.56</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>-620496.31000000006</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>-970286.56</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>-1322823.1200000001</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>-1524022.5</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>-2014956.75</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>-2046873.88</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>-2466918.75</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>-2549180.5</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>-2677854.75</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>-3132812.75</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>-3317049.5</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>-3520173</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>-3588896</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-323D-4373-B21B-CEBE3292D690}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="962433295"/>
+        <c:axId val="962433775"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="962433295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="962433775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="962433775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="962433295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>558006</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>507206</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5530E364-32A8-B0EE-6526-F8150DFED783}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -877,7 +4157,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C68A54EF-1B7A-48D0-9F04-FFCF599655D3}">
   <dimension ref="A1:B399"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -4075,5 +7357,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/proj7/plot.xlsx
+++ b/proj7/plot.xlsx
@@ -8,15 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\rhel9\home\vlee\repos\cs475\proj7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{30F7D221-729E-4079-8B96-A498EDB7357B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F882371D-110D-466F-82D8-DDCB0C7EA384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{66AFD5E6-E323-4747-8B73-6032F867D132}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" activeTab="1" xr2:uid="{66AFD5E6-E323-4747-8B73-6032F867D132}"/>
   </bookViews>
   <sheets>
     <sheet name="plot" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>processors</t>
+  </si>
+  <si>
+    <t>elements</t>
+  </si>
+  <si>
+    <t>MegaAutoCorrelationsPerSecond</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -573,6 +588,34 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>autocorrelation Sums[1..399] vs shift</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3069,6 +3112,7 @@
         <c:axId val="962433295"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="400"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4157,8 +4201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C68A54EF-1B7A-48D0-9F04-FFCF599655D3}">
   <dimension ref="A1:B399"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7359,4 +7403,85 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E5AEFE-948C-4440-BBB5-15B00A169A6D}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>8388608</v>
+      </c>
+      <c r="C2">
+        <v>365.96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>8388608</v>
+      </c>
+      <c r="C3">
+        <v>731.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>8388608</v>
+      </c>
+      <c r="C4">
+        <v>1405.12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>8388608</v>
+      </c>
+      <c r="C5">
+        <v>2090.65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>8388608</v>
+      </c>
+      <c r="C6">
+        <v>2716.48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/proj7/plot.xlsx
+++ b/proj7/plot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\rhel9\home\vlee\repos\cs475\proj7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F882371D-110D-466F-82D8-DDCB0C7EA384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0FDC8D4A-5EC2-4EA5-BC4E-6ED55D455A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" activeTab="1" xr2:uid="{66AFD5E6-E323-4747-8B73-6032F867D132}"/>
   </bookViews>
@@ -3285,6 +3285,479 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Performance vs. Number of Processors</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MegaAutoCorrelationsPerSecond</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>365.96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>731.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1405.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2090.65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2716.48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A58D-41A8-A4C5-E4AD44195F9D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="708408144"/>
+        <c:axId val="940943280"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="708408144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1"/>
+                  <a:t>Processors</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="940943280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="940943280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>MegaAutoCorrelationsPerSecond</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="708408144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3325,7 +3798,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3882,6 +4911,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>502100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>448627</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>136207</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF03B922-18E1-E679-00FD-F6552BDCC954}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7410,10 +8480,13 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C6"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="26.9296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -7483,5 +8556,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/proj7/plot.xlsx
+++ b/proj7/plot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\rhel9\home\vlee\repos\cs475\proj7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0FDC8D4A-5EC2-4EA5-BC4E-6ED55D455A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9155E78C-F7C6-4814-BBD2-ADAC3931C45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" activeTab="1" xr2:uid="{66AFD5E6-E323-4747-8B73-6032F867D132}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{66AFD5E6-E323-4747-8B73-6032F867D132}"/>
   </bookViews>
   <sheets>
     <sheet name="plot" sheetId="1" r:id="rId1"/>
@@ -607,12 +607,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>autocorrelation Sums[1..399] vs shift</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5271,8 +5271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C68A54EF-1B7A-48D0-9F04-FFCF599655D3}">
   <dimension ref="A1:B399"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8479,8 +8479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E5AEFE-948C-4440-BBB5-15B00A169A6D}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
